--- a/Team-Data/2011-12/4-21-2011-12.xlsx
+++ b/Team-Data/2011-12/4-21-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -771,10 +838,10 @@
         <v>9</v>
       </c>
       <c r="AM2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -798,10 +865,10 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -813,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="BA2" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB2" t="n">
         <v>19</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -959,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -977,16 +1044,16 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
         <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1141,7 +1208,7 @@
         <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>14</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" t="n">
         <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.45</v>
       </c>
       <c r="L5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M5" t="n">
         <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q5" t="n">
         <v>0.72</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="S5" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T5" t="n">
         <v>46.5</v>
       </c>
       <c r="U5" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V5" t="n">
         <v>14.1</v>
@@ -1281,16 +1348,16 @@
         <v>17.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="n">
         <v>96.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1311,13 +1378,13 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
@@ -1326,7 +1393,7 @@
         <v>27</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
@@ -1341,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -1472,37 +1539,37 @@
         <v>-6.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1526,13 +1593,13 @@
         <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.554</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L7" t="n">
         <v>7.6</v>
       </c>
       <c r="M7" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N7" t="n">
         <v>0.34</v>
       </c>
       <c r="O7" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P7" t="n">
         <v>20.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R7" t="n">
         <v>10.1</v>
@@ -1627,7 +1694,7 @@
         <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="V7" t="n">
         <v>14</v>
@@ -1636,22 +1703,22 @@
         <v>8.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1660,10 +1727,10 @@
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>4</v>
@@ -1672,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
@@ -1687,13 +1754,13 @@
         <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>27</v>
@@ -1705,16 +1772,16 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>1</v>
@@ -1726,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.556</v>
+        <v>0.548</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="O8" t="n">
         <v>20</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O8" t="n">
-        <v>19.9</v>
-      </c>
       <c r="P8" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.737</v>
+        <v>0.735</v>
       </c>
       <c r="R8" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S8" t="n">
         <v>31.9</v>
       </c>
       <c r="T8" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U8" t="n">
         <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1824,19 +1891,19 @@
         <v>6.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1845,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1875,25 +1942,25 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
@@ -2030,7 +2097,7 @@
         <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>25</v>
@@ -2048,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2057,19 +2124,19 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>27</v>
       </c>
       <c r="AU9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2087,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>0.349</v>
+        <v>0.355</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
@@ -2140,28 +2207,28 @@
         <v>37.6</v>
       </c>
       <c r="J10" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K10" t="n">
         <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O10" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P10" t="n">
         <v>19</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R10" t="n">
         <v>9.699999999999999</v>
@@ -2173,10 +2240,10 @@
         <v>39.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>8.1</v>
@@ -2188,10 +2255,10 @@
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="AB10" t="n">
         <v>98.09999999999999</v>
@@ -2200,13 +2267,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2218,16 +2285,16 @@
         <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
         <v>2</v>
@@ -2251,16 +2318,16 @@
         <v>28</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW10" t="n">
         <v>10</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
         <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
@@ -2325,34 +2392,34 @@
         <v>84</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L11" t="n">
         <v>7.2</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
         <v>0.36</v>
       </c>
       <c r="O11" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.782</v>
+        <v>0.784</v>
       </c>
       <c r="R11" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U11" t="n">
         <v>21.3</v>
@@ -2361,7 +2428,7 @@
         <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
         <v>4.8</v>
@@ -2373,25 +2440,25 @@
         <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB11" t="n">
         <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
@@ -2403,19 +2470,19 @@
         <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2451,7 +2518,7 @@
         <v>23</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
         <v>41</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.641</v>
+        <v>0.651</v>
       </c>
       <c r="H12" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J12" t="n">
-        <v>81.3</v>
+        <v>81</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2516,7 +2583,7 @@
         <v>16.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O12" t="n">
         <v>20.5</v>
@@ -2528,19 +2595,19 @@
         <v>0.784</v>
       </c>
       <c r="R12" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S12" t="n">
         <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>18.6</v>
       </c>
       <c r="V12" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W12" t="n">
         <v>7.8</v>
@@ -2549,22 +2616,22 @@
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA12" t="n">
         <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,13 +2643,13 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
@@ -2615,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV12" t="n">
         <v>9</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2779,10 +2846,10 @@
         <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2797,7 +2864,7 @@
         <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
@@ -2812,13 +2879,13 @@
         <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>1.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2955,7 +3022,7 @@
         <v>23</v>
       </c>
       <c r="AM14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN14" t="n">
         <v>26</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>11</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>22</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.609</v>
+        <v>0.603</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J15" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.447</v>
@@ -3059,25 +3126,25 @@
         <v>4.2</v>
       </c>
       <c r="M15" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.328</v>
+        <v>0.33</v>
       </c>
       <c r="O15" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P15" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S15" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T15" t="n">
         <v>42</v>
@@ -3086,34 +3153,34 @@
         <v>19.6</v>
       </c>
       <c r="V15" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X15" t="n">
         <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
         <v>94.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -3122,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3140,25 +3207,25 @@
         <v>28</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
         <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
@@ -3179,7 +3246,7 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -3214,34 +3281,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
         <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.714</v>
+        <v>0.726</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J16" t="n">
         <v>79.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L16" t="n">
         <v>5.6</v>
       </c>
       <c r="M16" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N16" t="n">
         <v>0.363</v>
@@ -3250,16 +3317,16 @@
         <v>19</v>
       </c>
       <c r="P16" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T16" t="n">
         <v>41.6</v>
@@ -3268,13 +3335,13 @@
         <v>20.3</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
         <v>4.2</v>
@@ -3283,22 +3350,22 @@
         <v>19.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>4</v>
@@ -3325,7 +3392,7 @@
         <v>9</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
         <v>8</v>
@@ -3340,13 +3407,13 @@
         <v>12</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="n">
         <v>18</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3361,10 +3428,10 @@
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
         <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.476</v>
+        <v>0.468</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3423,28 +3490,28 @@
         <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N17" t="n">
         <v>0.345</v>
       </c>
       <c r="O17" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P17" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R17" t="n">
         <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T17" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U17" t="n">
         <v>23.7</v>
@@ -3468,13 +3535,13 @@
         <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3489,16 +3556,16 @@
         <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>16</v>
@@ -3507,34 +3574,34 @@
         <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>6</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
         <v>14</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
         <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>6</v>
@@ -3543,10 +3610,10 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3668,13 +3735,13 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3695,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -3760,52 +3827,52 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J19" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
         <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="N19" t="n">
         <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T19" t="n">
         <v>40.4</v>
@@ -3835,25 +3902,25 @@
         <v>93.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
         <v>21</v>
@@ -3868,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3901,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
         <v>12</v>
@@ -3910,10 +3977,10 @@
         <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4074,7 +4141,7 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW20" t="n">
         <v>21</v>
@@ -4089,7 +4156,7 @@
         <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -4202,22 +4269,22 @@
         <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF21" t="n">
         <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>20</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -4488,52 +4555,52 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" t="n">
         <v>36</v>
       </c>
       <c r="F23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>0.571</v>
+        <v>0.581</v>
       </c>
       <c r="H23" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="J23" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="K23" t="n">
         <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M23" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P23" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.657</v>
+        <v>0.658</v>
       </c>
       <c r="R23" t="n">
         <v>11.2</v>
       </c>
       <c r="S23" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T23" t="n">
         <v>42.7</v>
@@ -4542,13 +4609,13 @@
         <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>6.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>4.1</v>
@@ -4557,16 +4624,16 @@
         <v>17.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
@@ -4575,10 +4642,10 @@
         <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4602,7 +4669,7 @@
         <v>28</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4620,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>25</v>
@@ -4635,7 +4702,7 @@
         <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
         <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.524</v>
+        <v>0.516</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,7 +4755,7 @@
         <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K24" t="n">
         <v>0.449</v>
@@ -4697,70 +4764,70 @@
         <v>5.3</v>
       </c>
       <c r="M24" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="N24" t="n">
         <v>0.364</v>
       </c>
       <c r="O24" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="P24" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T24" t="n">
         <v>43.1</v>
       </c>
       <c r="U24" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V24" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y24" t="n">
         <v>4.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>9</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,13 +4857,13 @@
         <v>22</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>4</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4805,10 +4872,10 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>11</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -4852,55 +4919,55 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" t="n">
         <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.516</v>
+        <v>0.524</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J25" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.459</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O25" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S25" t="n">
         <v>30.8</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
         <v>22.6</v>
@@ -4924,22 +4991,22 @@
         <v>19.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
@@ -4948,28 +5015,28 @@
         <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
       </c>
       <c r="AL25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4984,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="n">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="n">
-        <v>0.438</v>
+        <v>0.444</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O26" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P26" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q26" t="n">
         <v>0.795</v>
       </c>
       <c r="R26" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
         <v>29.6</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V26" t="n">
         <v>14.2</v>
@@ -5094,25 +5161,25 @@
         <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z26" t="n">
         <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,28 +5191,28 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>8</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
         <v>17</v>
@@ -5154,10 +5221,10 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5169,10 +5236,10 @@
         <v>11</v>
       </c>
       <c r="AW26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>10</v>
@@ -5181,10 +5248,10 @@
         <v>10</v>
       </c>
       <c r="BA26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB26" t="n">
         <v>13</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5306,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>10</v>
@@ -5321,19 +5388,19 @@
         <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>29</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
         <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5342,7 +5409,7 @@
         <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5524,10 +5591,10 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
@@ -5539,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ29" t="n">
         <v>28</v>
@@ -5697,16 +5764,16 @@
         <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.531</v>
+        <v>0.524</v>
       </c>
       <c r="H30" t="n">
         <v>49</v>
       </c>
       <c r="I30" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L30" t="n">
         <v>4.1</v>
       </c>
       <c r="M30" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.323</v>
+        <v>0.322</v>
       </c>
       <c r="O30" t="n">
         <v>19</v>
@@ -5801,7 +5868,7 @@
         <v>25.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R30" t="n">
         <v>13</v>
@@ -5816,7 +5883,7 @@
         <v>21.9</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W30" t="n">
         <v>8.199999999999999</v>
@@ -5828,19 +5895,19 @@
         <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5855,13 +5922,13 @@
         <v>2</v>
       </c>
       <c r="AI30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ30" t="n">
         <v>4</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,10 +5937,10 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
@@ -5894,10 +5961,10 @@
         <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
@@ -5909,10 +5976,10 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
         <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.27</v>
+        <v>0.258</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5971,25 +6038,25 @@
         <v>5.3</v>
       </c>
       <c r="M31" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.323</v>
+        <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
         <v>0.73</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T31" t="n">
         <v>41.5</v>
@@ -6004,25 +6071,25 @@
         <v>7.7</v>
       </c>
       <c r="X31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y31" t="n">
         <v>4.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA31" t="n">
         <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6052,13 +6119,13 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6088,13 +6155,13 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-21-2011-12</t>
+          <t>2012-04-21</t>
         </is>
       </c>
     </row>
